--- a/model/尺寸信息.xlsx
+++ b/model/尺寸信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\柔性光伏板_全\Photovoltaic-Panel-Wind-Vibration-Analysis\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52ED113-AF92-4531-8EA1-CA5A801C8BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22CE693-B05F-4730-811D-693E59FAF097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5280" yWindow="6372" windowWidth="23040" windowHeight="11976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="板坐标" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="51">
   <si>
     <t>实际宽度坐标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,12 +264,16 @@
     <t>node</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>板宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +287,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -317,12 +327,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6317,10 +6330,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE6C9FF-F1E9-4E75-A182-706DD0403D10}">
-  <dimension ref="A1:X112"/>
+  <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6331,9 +6344,10 @@
     <col min="5" max="5" width="16.88671875" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" customWidth="1"/>
     <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="25" max="25" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -6372,8 +6386,11 @@
       <c r="X1">
         <v>-1.1399999999999999</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -6414,8 +6431,11 @@
       <c r="X2">
         <v>-0.72499999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2" s="4">
+        <v>1.1339999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -6442,7 +6462,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -6469,7 +6489,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -6493,7 +6513,7 @@
         <v>2.887</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -6517,7 +6537,7 @@
         <v>4.0469999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -6541,7 +6561,7 @@
         <v>5.2069999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -6565,7 +6585,7 @@
         <v>6.367</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -6589,7 +6609,7 @@
         <v>7.5270000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -6613,7 +6633,7 @@
         <v>8.9109999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -6637,7 +6657,7 @@
         <v>10.071</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -6661,7 +6681,7 @@
         <v>11.231</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -6685,7 +6705,7 @@
         <v>12.391</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -6709,7 +6729,7 @@
         <v>13.551</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -6733,7 +6753,7 @@
         <v>14.711</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -15543,7 +15563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF0011A-2970-4117-B5B3-C3A5C7CAB19D}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
